--- a/Dados/Dados_CPF.xlsx
+++ b/Dados/Dados_CPF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everton\Projetos\Script E-Social 1200\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A33C8-7D98-4586-BF7F-0005E7598DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CDD8DE-27E6-43FE-BF31-87C1F5EBA67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CPF</t>
   </si>
   <si>
     <t>Nome</t>
-  </si>
-  <si>
-    <t>MARINA DE FARIA NEVES CANDIDO</t>
-  </si>
-  <si>
-    <t>01402245645</t>
-  </si>
-  <si>
-    <t>01492974676</t>
-  </si>
-  <si>
-    <t>Dani</t>
   </si>
 </sst>
 </file>
@@ -433,7 +421,7 @@
   <dimension ref="A1:B821"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -455,20 +443,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
